--- a/Labs/lab2/Homework/VNM_BCTC_4Q.xlsx
+++ b/Labs/lab2/Homework/VNM_BCTC_4Q.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\02. C4E15\Labs\lab2\Homework\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6045" windowHeight="6900"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="pyexcel_sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pyexcel_sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>Q1_17</t>
   </si>
@@ -48,9 +43,8 @@
     <t>11,838,267,527,921</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                1. Doanh thu bán hàng và cung cấp dịch vụ_x000D_
+    <t xml:space="preserve">
+                1. Doanh thu bán hàng và cung cấp dịch vụ
             </t>
   </si>
   <si>
@@ -66,9 +60,8 @@
     <t>30,656,778,415</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                2. Các khoản giảm trừ doanh thu_x000D_
+    <t xml:space="preserve">
+                2. Các khoản giảm trừ doanh thu
             </t>
   </si>
   <si>
@@ -84,9 +77,8 @@
     <t>11,807,610,749,506</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                3. Doanh thu thuần về bán hàng và cung cấp dịch vụ_x000D_
+    <t xml:space="preserve">
+                3. Doanh thu thuần về bán hàng và cung cấp dịch vụ
             </t>
   </si>
   <si>
@@ -102,9 +94,8 @@
     <t>6,327,315,699,575</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                4. Giá vốn hàng bán_x000D_
+    <t xml:space="preserve">
+                4. Giá vốn hàng bán
             </t>
   </si>
   <si>
@@ -120,9 +111,8 @@
     <t>5,480,295,049,931</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                5. Lợi nhuận gộp về bán hàng và cung cấp dịch vụ_x000D_
+    <t xml:space="preserve">
+                5. Lợi nhuận gộp về bán hàng và cung cấp dịch vụ
             </t>
   </si>
   <si>
@@ -138,9 +128,8 @@
     <t>194,133,215,944</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                6. Doanh thu hoạt động tài chính_x000D_
+    <t xml:space="preserve">
+                6. Doanh thu hoạt động tài chính
             </t>
   </si>
   <si>
@@ -156,9 +145,8 @@
     <t>33,702,023,732</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                7. Chi phí tài chính_x000D_
+    <t xml:space="preserve">
+                7. Chi phí tài chính
             </t>
   </si>
   <si>
@@ -174,9 +162,8 @@
     <t>19,574,144,919</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                    _x000D_
-                  - Trong đó: Chi phí lãi vay_x000D_
+    <t xml:space="preserve">
+                  - Trong đó: Chi phí lãi vay
             </t>
   </si>
   <si>
@@ -192,9 +179,8 @@
     <t>-6,270,069,878</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                8. Phần lãi lỗ hoặc lỗ trong công ty liên doanh, liên kết_x000D_
+    <t xml:space="preserve">
+                8. Phần lãi lỗ hoặc lỗ trong công ty liên doanh, liên kết
             </t>
   </si>
   <si>
@@ -210,9 +196,8 @@
     <t>3,192,490,113,496</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                9. Chi phí bán hàng_x000D_
+    <t xml:space="preserve">
+                9. Chi phí bán hàng
             </t>
   </si>
   <si>
@@ -228,9 +213,8 @@
     <t>296,402,762,521</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                10. Chi phí quản lý doanh nghiệp_x000D_
+    <t xml:space="preserve">
+                10. Chi phí quản lý doanh nghiệp
             </t>
   </si>
   <si>
@@ -246,9 +230,8 @@
     <t>2,145,563,296,248</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                11. Lợi nhuận thuần từ hoạt động kinh doanh_x000D_
+    <t xml:space="preserve">
+                11. Lợi nhuận thuần từ hoạt động kinh doanh
             </t>
   </si>
   <si>
@@ -264,9 +247,8 @@
     <t>94,658,510,605</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                12. Thu nhập khác_x000D_
+    <t xml:space="preserve">
+                12. Thu nhập khác
             </t>
   </si>
   <si>
@@ -282,9 +264,8 @@
     <t>36,051,875,486</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                13. Chi phí khác_x000D_
+    <t xml:space="preserve">
+                13. Chi phí khác
             </t>
   </si>
   <si>
@@ -300,9 +281,8 @@
     <t>58,606,635,119</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                14. Lợi nhuận khác_x000D_
+    <t xml:space="preserve">
+                14. Lợi nhuận khác
             </t>
   </si>
   <si>
@@ -318,9 +298,8 @@
     <t>2,204,169,931,367</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                15. Tổng lợi nhuận kế toán trước thuế_x000D_
+    <t xml:space="preserve">
+                15. Tổng lợi nhuận kế toán trước thuế
             </t>
   </si>
   <si>
@@ -336,9 +315,8 @@
     <t>377,978,824,943</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                16. Chi phí thuế TNDN hiện hành_x000D_
+    <t xml:space="preserve">
+                16. Chi phí thuế TNDN hiện hành
             </t>
   </si>
   <si>
@@ -354,9 +332,8 @@
     <t>-2,096,140,601</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                17. Chi phí thuế TNDN hoãn lại_x000D_
+    <t xml:space="preserve">
+                17. Chi phí thuế TNDN hoãn lại
             </t>
   </si>
   <si>
@@ -372,9 +349,8 @@
     <t>1,828,287,247,025</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                18. Lợi nhuận sau thuế thu nhập doanh nghiệp_x000D_
+    <t xml:space="preserve">
+                18. Lợi nhuận sau thuế thu nhập doanh nghiệp
             </t>
   </si>
   <si>
@@ -390,9 +366,8 @@
     <t>-676,593,137</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                18.1 Lợi ích của cổ đông thiểu số_x000D_
+    <t xml:space="preserve">
+                18.1 Lợi ích của cổ đông thiểu số
             </t>
   </si>
   <si>
@@ -408,9 +383,8 @@
     <t>1,828,963,840,162</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                18.2  Lợi nhuận sau thuế của công ty mẹ_x000D_
+    <t xml:space="preserve">
+                18.2  Lợi nhuận sau thuế của công ty mẹ
             </t>
   </si>
   <si>
@@ -426,40 +400,38 @@
     <t>1,136</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                19. Lãi cơ bản trên cổ phiếu_x000D_
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                20. Lãi suy giảm trên cổ phiếu_x000D_
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-                  _x000D_
-                21. Cổ tức_x000D_
+    <t xml:space="preserve">
+                19. Lãi cơ bản trên cổ phiếu
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                20. Lãi suy giảm trên cổ phiếu
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                21. Cổ tức
             </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -475,24 +447,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -780,17 +743,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -824,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -841,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -858,7 +823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -875,7 +840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -892,7 +857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -909,7 +874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -926,7 +891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -943,7 +908,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -960,7 +925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -977,7 +942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -994,7 +959,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1011,7 +976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1028,7 +993,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -1045,7 +1010,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1062,7 +1027,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -1079,7 +1044,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1096,7 +1061,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -1113,7 +1078,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -1130,7 +1095,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -1147,7 +1112,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -1164,7 +1129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -1181,17 +1146,24 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24">
+      <c r="A24" t="s"/>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="s"/>
       <c r="E24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25">
+      <c r="A25" t="s"/>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="s"/>
       <c r="E25" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>